--- a/data/taxon genera files/Q genera reduced.xlsx
+++ b/data/taxon genera files/Q genera reduced.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>&lt;Modern plant genus to which the following fossil pollen species have been assigned.&gt;</t>
   </si>
@@ -2785,6 +2785,40 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (Song &amp; Li) Kalgutkar &amp; Jansonius 2000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Quinquecuspis pentagona</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Uddandam, Prasad, &amp; Manoj 2020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Qinghaipollis minor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Wang &amp; Yu 2000</t>
     </r>
   </si>
 </sst>
@@ -3316,10 +3350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M197"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="N163" sqref="N163"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3376,474 +3410,462 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E8" s="2" t="s">
-        <v>2</v>
+      <c r="E8" s="26" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+    <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E14" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E18" s="2" t="s">
+    <row r="19" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+    <row r="20" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E21" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E25" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E29" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E30" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E31" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E34" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E36" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E37" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
+    <row r="38" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
+    <row r="40" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
+    <row r="42" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E43" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
+    <row r="44" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E45" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E47" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E48" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E49" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B49" s="5" t="s">
+    <row r="50" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E50" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E51" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E52" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
+    <row r="53" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
+    <row r="55" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E56" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B56" s="5" t="s">
+    <row r="57" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E57" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E58" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E59" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B59" s="5" t="s">
+    <row r="60" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E60" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E61" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E62" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B62" s="5" t="s">
+    <row r="63" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E64" s="1" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E64" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E65" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E66" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B66" s="5" t="s">
+    <row r="67" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E68" s="4" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E68" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E69" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E70" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E71" s="1" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E72" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E73" s="2" t="s">
+    <row r="74" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E74" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B74" s="5" t="s">
+    <row r="75" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E76" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E76" s="2" t="s">
+    <row r="77" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E77" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B77" s="5" t="s">
+    <row r="78" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E79" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B79" s="5" t="s">
+    <row r="80" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E81" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B81" s="5" t="s">
+    <row r="82" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E82" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E83" s="2" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E84" s="2" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E85" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E86" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B86" s="5" t="s">
+    <row r="87" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D87" s="6" t="s">
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D88" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E89" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B89" s="5" t="s">
+    <row r="90" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A90"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="26" t="s">
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A91"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="F90" s="14"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-    </row>
-    <row r="91" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E91" s="26" t="s">
+      <c r="F91" s="14"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+    </row>
+    <row r="92" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E92" s="26" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A92"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="F92" s="14"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
     </row>
     <row r="93" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93"/>
@@ -3851,7 +3873,7 @@
       <c r="C93" s="12"/>
       <c r="D93" s="6"/>
       <c r="E93" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F93" s="14"/>
       <c r="G93" s="15"/>
@@ -3868,7 +3890,7 @@
       <c r="C94" s="12"/>
       <c r="D94" s="6"/>
       <c r="E94" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F94" s="14"/>
       <c r="G94" s="15"/>
@@ -3885,7 +3907,7 @@
       <c r="C95" s="12"/>
       <c r="D95" s="6"/>
       <c r="E95" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F95" s="14"/>
       <c r="G95" s="15"/>
@@ -3902,7 +3924,7 @@
       <c r="C96" s="12"/>
       <c r="D96" s="6"/>
       <c r="E96" s="26" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F96" s="14"/>
       <c r="G96" s="15"/>
@@ -3919,7 +3941,7 @@
       <c r="C97" s="12"/>
       <c r="D97" s="6"/>
       <c r="E97" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F97" s="14"/>
       <c r="G97" s="15"/>
@@ -3930,95 +3952,95 @@
       <c r="L97" s="17"/>
       <c r="M97" s="17"/>
     </row>
-    <row r="98" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E98" s="2" t="s">
+    <row r="98" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A98"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F98" s="14"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+    </row>
+    <row r="99" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E99" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B99" s="5" t="s">
+    <row r="100" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E101" s="2" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E101" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E102" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E103" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B103" s="5" t="s">
+    <row r="104" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E105" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E105" s="9" t="s">
+    <row r="106" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E106" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B106" s="5" t="s">
+    <row r="107" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B107" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E106" s="9"/>
-    </row>
-    <row r="107" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E107" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E108" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E109" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E110" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A110" s="19"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F110" s="22"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
-      <c r="I110" s="24"/>
-      <c r="J110" s="24"/>
-      <c r="K110" s="24"/>
-      <c r="L110" s="24"/>
-      <c r="M110" s="24"/>
     </row>
     <row r="111" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="19"/>
       <c r="B111" s="20"/>
       <c r="C111" s="20"/>
       <c r="D111" s="21"/>
-      <c r="E111" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F111" s="23"/>
+      <c r="E111" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F111" s="22"/>
       <c r="G111" s="23"/>
       <c r="H111" s="23"/>
       <c r="I111" s="24"/>
@@ -4032,10 +4054,10 @@
       <c r="B112" s="20"/>
       <c r="C112" s="20"/>
       <c r="D112" s="21"/>
-      <c r="E112" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F112" s="22"/>
+      <c r="E112" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F112" s="23"/>
       <c r="G112" s="23"/>
       <c r="H112" s="23"/>
       <c r="I112" s="24"/>
@@ -4044,478 +4066,512 @@
       <c r="L112" s="24"/>
       <c r="M112" s="24"/>
     </row>
-    <row r="113" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E113" s="22" t="s">
+    <row r="113" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A113" s="19"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F113" s="22"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="24"/>
+    </row>
+    <row r="114" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E114" s="22" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E114" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E115" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E116" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E117" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E117" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E118" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E119" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E120" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E121" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A121"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="22" t="s">
+    <row r="122" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A122"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="F121" s="14"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-    </row>
-    <row r="122" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E122" s="26" t="s">
+      <c r="F122" s="14"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+    </row>
+    <row r="123" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E123" s="26" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E123" s="22" t="s">
+    <row r="124" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E124" s="22" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E124" s="26" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E125" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E126" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E127" s="26" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A127"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="22" t="s">
+    <row r="128" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A128"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="F127" s="14"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="16"/>
-      <c r="I127" s="17"/>
-      <c r="J127" s="17"/>
-      <c r="K127" s="17"/>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-    </row>
-    <row r="128" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E128" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="F128" s="14"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="17"/>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
     </row>
     <row r="129" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E129" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="130" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E130" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="131" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E131" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="132" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E132" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E133" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E133" s="22" t="s">
+    <row r="134" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E134" s="22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B134" s="5" t="s">
+    <row r="135" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B135" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E135" s="1" t="s">
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E136" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="136" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B136" s="5" t="s">
+    <row r="137" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B137" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E136" s="1"/>
-    </row>
-    <row r="137" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E137" s="1" t="s">
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E138" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="138" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B138" s="5" t="s">
+    <row r="139" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B139" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E138" s="1"/>
-    </row>
-    <row r="139" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D139" s="6" t="s">
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D140" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E139" s="1"/>
-    </row>
-    <row r="140" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E140" s="4" t="s">
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E141" s="4" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E141" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="142" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E142" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="143" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E143" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E144" s="2" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E144" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E145" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E146" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="146" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A146"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="22" t="s">
+    <row r="147" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A147"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="F146" s="14"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="16"/>
-      <c r="I146" s="17"/>
-      <c r="J146" s="17"/>
-      <c r="K146" s="17"/>
-      <c r="L146" s="17"/>
-      <c r="M146" s="17"/>
-    </row>
-    <row r="147" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E147" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="F147" s="14"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="16"/>
+      <c r="I147" s="17"/>
+      <c r="J147" s="17"/>
+      <c r="K147" s="17"/>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
     </row>
     <row r="148" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E148" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E149" s="1" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E149" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E150" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E151" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E152" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E153" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E154" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E155" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E156" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E157" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E158" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E159" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E160" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E161" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="161" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B161" s="5" t="s">
+    <row r="162" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B162" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E161" s="2"/>
-    </row>
-    <row r="162" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C162" s="7" t="s">
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C163" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E162" s="2"/>
-    </row>
-    <row r="163" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E163" s="22" t="s">
-        <v>186</v>
-      </c>
+      <c r="E163" s="2"/>
     </row>
     <row r="164" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E164" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="165" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E165" s="22" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="166" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E166" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E167" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E168" s="22" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="168" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E168" s="3" t="s">
+    <row r="169" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E169" s="3" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E169" s="22" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="170" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E170" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E171" s="22" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="171" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E171" s="2" t="s">
+    <row r="172" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E172" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="172" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B172" s="5" t="s">
+    <row r="173" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B173" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E172" s="2"/>
-    </row>
-    <row r="173" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E173" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="E173" s="2"/>
     </row>
     <row r="174" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E174" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="175" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E175" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="176" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E176" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E177" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E177" s="2" t="s">
+    <row r="178" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E178" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="178" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E178" s="2" t="s">
+    <row r="179" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E179" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="179" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E179" s="2" t="s">
+    <row r="180" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E180" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="180" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B180" s="5" t="s">
+    <row r="181" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B181" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E181" s="2" t="s">
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E182" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="182" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B182" s="5" t="s">
+    <row r="183" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A183"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="13"/>
+      <c r="E183" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F183" s="14"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="16"/>
+      <c r="I183" s="17"/>
+      <c r="J183" s="17"/>
+      <c r="K183" s="17"/>
+      <c r="L183" s="17"/>
+      <c r="M183" s="17"/>
+    </row>
+    <row r="184" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B184" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D183" s="6" t="s">
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D185" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E183" s="2"/>
-    </row>
-    <row r="184" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E184" s="2" t="s">
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E186" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="185" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B185" s="5" t="s">
+    <row r="187" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B187" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E185" s="2"/>
-    </row>
-    <row r="186" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E186" s="2" t="s">
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E188" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="187" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E187" s="3" t="s">
+    <row r="189" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E189" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="188" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B188" s="5" t="s">
+    <row r="190" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B190" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E188" s="2"/>
-    </row>
-    <row r="189" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E189" s="2" t="s">
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E191" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="190" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B190" s="5" t="s">
+    <row r="192" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B192" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E190" s="2"/>
-    </row>
-    <row r="191" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C191" s="7" t="s">
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C193" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E191" s="2"/>
-    </row>
-    <row r="192" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E192" s="1" t="s">
+      <c r="E193" s="2"/>
+    </row>
+    <row r="194" spans="3:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E194" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="193" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E193" s="1" t="s">
+    <row r="195" spans="3:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E195" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="194" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E194" s="1" t="s">
+    <row r="196" spans="3:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E196" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="195" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E195" s="2" t="s">
+    <row r="197" spans="3:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E197" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="196" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E196" s="2" t="s">
+    <row r="198" spans="3:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E198" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="197" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E197" s="2" t="s">
+    <row r="199" spans="3:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E199" s="2" t="s">
         <v>110</v>
       </c>
     </row>

--- a/data/taxon genera files/Q genera reduced.xlsx
+++ b/data/taxon genera files/Q genera reduced.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>&lt;Modern plant genus to which the following fossil pollen species have been assigned.&gt;</t>
   </si>
@@ -2819,6 +2819,72 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Wang &amp; Yu 2000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Quercoidites fusus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sah 1967</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Quilonia informis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Ke &amp; Shi) Kalgutkar &amp; Jansonius 2000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Quercus planopollenites</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Rouse 1962</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Qualisaspora kidstonii</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Wellman &amp; Richardson 1996</t>
     </r>
   </si>
 </sst>
@@ -2826,7 +2892,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2964,6 +3030,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2985,7 +3062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3041,6 +3118,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3350,10 +3430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="N89" sqref="N89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3786,103 +3866,91 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B80" s="5" t="s">
+      <c r="E80" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E82" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B82" s="5" t="s">
+    <row r="83" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E83" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E84" s="2" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E85" s="2" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E86" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E87" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B87" s="5" t="s">
+    <row r="88" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D88" s="6" t="s">
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D89" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E90" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B90" s="5" t="s">
+    <row r="91" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A91"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="26" t="s">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A92"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="F91" s="14"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-    </row>
-    <row r="92" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E92" s="26" t="s">
+      <c r="F92" s="14"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+    </row>
+    <row r="93" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E93" s="26" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A93"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="F93" s="14"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
     </row>
     <row r="94" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94"/>
@@ -3890,7 +3958,7 @@
       <c r="C94" s="12"/>
       <c r="D94" s="6"/>
       <c r="E94" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F94" s="14"/>
       <c r="G94" s="15"/>
@@ -3907,7 +3975,7 @@
       <c r="C95" s="12"/>
       <c r="D95" s="6"/>
       <c r="E95" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F95" s="14"/>
       <c r="G95" s="15"/>
@@ -3924,7 +3992,7 @@
       <c r="C96" s="12"/>
       <c r="D96" s="6"/>
       <c r="E96" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F96" s="14"/>
       <c r="G96" s="15"/>
@@ -3941,7 +4009,7 @@
       <c r="C97" s="12"/>
       <c r="D97" s="6"/>
       <c r="E97" s="26" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F97" s="14"/>
       <c r="G97" s="15"/>
@@ -3958,7 +4026,7 @@
       <c r="C98" s="12"/>
       <c r="D98" s="6"/>
       <c r="E98" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F98" s="14"/>
       <c r="G98" s="15"/>
@@ -3969,95 +4037,95 @@
       <c r="L98" s="17"/>
       <c r="M98" s="17"/>
     </row>
-    <row r="99" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E99" s="2" t="s">
+    <row r="99" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A99"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F99" s="14"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+    </row>
+    <row r="100" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E100" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B100" s="5" t="s">
+    <row r="101" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E102" s="2" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E102" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E103" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E104" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B104" s="5" t="s">
+    <row r="105" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E106" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E106" s="9" t="s">
+    <row r="107" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E107" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B107" s="5" t="s">
+    <row r="108" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B108" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E107" s="9"/>
-    </row>
-    <row r="108" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E108" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="E108" s="9"/>
     </row>
     <row r="109" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E109" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E110" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E111" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A111" s="19"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="21"/>
-      <c r="E111" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F111" s="22"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="24"/>
-      <c r="L111" s="24"/>
-      <c r="M111" s="24"/>
     </row>
     <row r="112" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="19"/>
       <c r="B112" s="20"/>
       <c r="C112" s="20"/>
       <c r="D112" s="21"/>
-      <c r="E112" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F112" s="23"/>
+      <c r="E112" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F112" s="22"/>
       <c r="G112" s="23"/>
       <c r="H112" s="23"/>
       <c r="I112" s="24"/>
@@ -4071,10 +4139,10 @@
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
       <c r="D113" s="21"/>
-      <c r="E113" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F113" s="22"/>
+      <c r="E113" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F113" s="23"/>
       <c r="G113" s="23"/>
       <c r="H113" s="23"/>
       <c r="I113" s="24"/>
@@ -4083,495 +4151,539 @@
       <c r="L113" s="24"/>
       <c r="M113" s="24"/>
     </row>
-    <row r="114" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E114" s="22" t="s">
+    <row r="114" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A114" s="19"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="24"/>
+      <c r="L114" s="24"/>
+      <c r="M114" s="24"/>
+    </row>
+    <row r="115" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A115" s="19"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F115" s="22"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="23"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="24"/>
+      <c r="M115" s="24"/>
+    </row>
+    <row r="116" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E116" s="22" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E115" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E116" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E117" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E118" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E119" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E118" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E119" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E120" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E121" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E122" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E123" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="122" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A122"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="22" t="s">
+    <row r="124" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A124"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="F122" s="14"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="16"/>
-      <c r="I122" s="17"/>
-      <c r="J122" s="17"/>
-      <c r="K122" s="17"/>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-    </row>
-    <row r="123" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E123" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E124" s="22" t="s">
-        <v>164</v>
-      </c>
+      <c r="F124" s="14"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
+      <c r="K124" s="17"/>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
     </row>
     <row r="125" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E125" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E126" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E126" s="22" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E127" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E128" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E129" s="26" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="128" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A128"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="22" t="s">
+    <row r="130" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A130"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="F128" s="14"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="16"/>
-      <c r="I128" s="17"/>
-      <c r="J128" s="17"/>
-      <c r="K128" s="17"/>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-    </row>
-    <row r="129" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E129" s="2" t="s">
+      <c r="F130" s="14"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="16"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+    </row>
+    <row r="131" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E131" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="130" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E130" s="2" t="s">
+    <row r="132" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E132" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="131" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E131" s="2" t="s">
+    <row r="133" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E133" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E132" s="2" t="s">
+    <row r="134" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E134" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E133" s="2" t="s">
+    <row r="135" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E135" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E134" s="22" t="s">
+    <row r="136" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E136" s="22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B135" s="5" t="s">
+    <row r="137" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B137" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E136" s="1" t="s">
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E138" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="137" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B137" s="5" t="s">
+    <row r="139" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B139" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E137" s="1"/>
-    </row>
-    <row r="138" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E138" s="1" t="s">
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E140" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="139" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B139" s="5" t="s">
+    <row r="141" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B141" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E139" s="1"/>
-    </row>
-    <row r="140" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D140" s="6" t="s">
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D142" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E140" s="1"/>
-    </row>
-    <row r="141" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E141" s="4" t="s">
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E143" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="142" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E142" s="2" t="s">
+    <row r="144" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E144" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="143" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E143" s="2" t="s">
+    <row r="145" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E145" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="144" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E144" s="2" t="s">
+    <row r="146" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E146" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E145" s="1" t="s">
+    <row r="147" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E147" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E146" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A147"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F147" s="14"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="16"/>
-      <c r="I147" s="17"/>
-      <c r="J147" s="17"/>
-      <c r="K147" s="17"/>
-      <c r="L147" s="17"/>
-      <c r="M147" s="17"/>
     </row>
     <row r="148" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E148" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A149"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F149" s="14"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="17"/>
+      <c r="J149" s="17"/>
+      <c r="K149" s="17"/>
+      <c r="L149" s="17"/>
+      <c r="M149" s="17"/>
+    </row>
+    <row r="150" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E150" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E149" s="1" t="s">
+    <row r="151" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E151" s="1" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E150" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E151" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E152" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E153" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E154" s="2" t="s">
-        <v>89</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E155" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E156" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E157" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E158" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E159" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E160" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="161" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E161" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E162" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E163" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E164" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="162" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B162" s="5" t="s">
+    <row r="165" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B165" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E162" s="2"/>
-    </row>
-    <row r="163" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C163" s="7" t="s">
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C166" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E163" s="2"/>
-    </row>
-    <row r="164" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E164" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E165" s="22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E166" s="22" t="s">
-        <v>184</v>
-      </c>
+      <c r="E166" s="2"/>
     </row>
     <row r="167" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E167" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E168" s="22" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E169" s="3" t="s">
-        <v>192</v>
+      <c r="E169" s="22" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E170" s="22" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="171" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E171" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E172" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E173" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E174" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E175" s="22" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E172" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B173" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E173" s="2"/>
-    </row>
-    <row r="174" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E174" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E175" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="176" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E176" s="2" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E177" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="B177" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E177" s="2"/>
     </row>
     <row r="178" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E178" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="179" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E179" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E180" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="181" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B181" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E181" s="2"/>
+      <c r="E181" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="182" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E182" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A183"/>
-      <c r="B183" s="11"/>
-      <c r="C183" s="12"/>
-      <c r="D183" s="13"/>
-      <c r="E183" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F183" s="14"/>
-      <c r="G183" s="15"/>
-      <c r="H183" s="16"/>
-      <c r="I183" s="17"/>
-      <c r="J183" s="17"/>
-      <c r="K183" s="17"/>
-      <c r="L183" s="17"/>
-      <c r="M183" s="17"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E183" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="184" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B184" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E184" s="2"/>
-    </row>
-    <row r="185" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D185" s="6" t="s">
-        <v>147</v>
+      <c r="E184" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B185" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="E185" s="2"/>
     </row>
     <row r="186" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E186" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A187"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="13"/>
+      <c r="E187" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F187" s="14"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="16"/>
+      <c r="I187" s="17"/>
+      <c r="J187" s="17"/>
+      <c r="K187" s="17"/>
+      <c r="L187" s="17"/>
+      <c r="M187" s="17"/>
+    </row>
+    <row r="188" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B188" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D189" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E190" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B187" s="5" t="s">
+    <row r="191" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B191" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E188" s="2" t="s">
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E192" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E189" s="3" t="s">
+    <row r="193" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E193" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B190" s="5" t="s">
+    <row r="194" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B194" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E190" s="2"/>
-    </row>
-    <row r="191" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E191" s="2" t="s">
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E195" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B192" s="5" t="s">
+    <row r="196" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B196" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E192" s="2"/>
-    </row>
-    <row r="193" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C193" s="7" t="s">
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C197" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E193" s="2"/>
-    </row>
-    <row r="194" spans="3:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E194" s="1" t="s">
+      <c r="E197" s="2"/>
+    </row>
+    <row r="198" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E198" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="195" spans="3:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E195" s="1" t="s">
+    <row r="199" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E199" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="196" spans="3:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E196" s="1" t="s">
+    <row r="200" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E200" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="197" spans="3:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E197" s="2" t="s">
+    <row r="201" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E201" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="198" spans="3:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E198" s="2" t="s">
+    <row r="202" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E202" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="199" spans="3:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E199" s="2" t="s">
+    <row r="203" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E203" s="2" t="s">
         <v>110</v>
       </c>
     </row>
